--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushize/Desktop/Programming List/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068FB2F-B0D7-CD41-8EA1-D3273DCCC4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D740B-C8BC-460E-A719-235352342627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="18640" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="30" windowWidth="15660" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
     <t>NAME: K2PPHB</t>
   </si>
   <si>
-    <t>PPT_1
-PPT_2</t>
-  </si>
-  <si>
     <t>NAME: H1PPWVBX</t>
   </si>
   <si>
@@ -80,18 +76,6 @@
     <t>KASTA SCENE</t>
   </si>
   <si>
-    <t>r1 ON
-r2 OFF
-r3, r4, r5 ON
-r6, r7, r8 OFF</t>
-  </si>
-  <si>
-    <t>CURTAIN_1 OPEN
-CURTAIN_2 CLOSE
-CURTAIN_3, CURTAIN_4 OPEN
-CURTAIN_5, CURTAIN_6 CLOSE</t>
-  </si>
-  <si>
     <t>REMOTE CONTROL LINK</t>
   </si>
   <si>
@@ -116,22 +100,7 @@
     <t xml:space="preserve">NAME: 4OS2IBH </t>
   </si>
   <si>
-    <t>FAN1 ON RELAY OFF SPEED 3
-FAN2 OFF RELAY OFF
-FAN3 ON RELAY OFF SPEED 1</t>
-  </si>
-  <si>
     <t>Programming Details</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-d1 ON
-d2 OFF 
-d3, d4 ON
-d5, d6 OFF
-d7 ON +60% 
-d8, d9, d10 ON +70%
-d11, d12, d13 OFF</t>
   </si>
   <si>
     <t>d1
@@ -192,10 +161,6 @@
   </si>
   <si>
     <t>NAME: Dimmer Type</t>
-  </si>
-  <si>
-    <t>PPT_1 ON OFF
-PPT_2 OFF ON</t>
   </si>
   <si>
     <t>NAME: Mixed Type</t>
@@ -291,24 +256,60 @@
 5: GROUP DND</t>
   </si>
   <si>
+    <t>NAME: Single Way PowerPoint Type</t>
+  </si>
+  <si>
+    <t>NAME: KBSKTREL</t>
+  </si>
+  <si>
+    <t>NAME: KBSKTDIM</t>
+  </si>
+  <si>
+    <t>CURTAIN_1 open
+CURTAIN_2 CLOSE
+CURTAIN_3, CURTAIN_4 OPEN
+CURTAIN_5, CURTAIN_6 close</t>
+  </si>
+  <si>
     <t>NAME: Two Way PowerPoint Type</t>
   </si>
   <si>
-    <t>NAME: Single Way PowerPoint Type</t>
-  </si>
-  <si>
-    <t>1: DEVICE 6IN
-2: GROUP Group 3
-3: GROUP DND
-4: SCENE Fan Type
+    <t>PPT_1
+PPT_2
+PPT_4</t>
+  </si>
+  <si>
+    <t>1: DEVICE PPT_1
+2: DEVICE PPT_2 - ON OFF
+3: DEVICE PPT_4 - OFF ON
+4: DEVICE PPT3
 5: SCENE Single Way PowerPoint Type
 6: SCENE Two Way PowerPoint Type</t>
   </si>
   <si>
-    <t>NAME: KBSKTREL</t>
-  </si>
-  <si>
-    <t>NAME: KBSKTDIM</t>
+    <t>r1 on
+r2 OFF
+r3, r4, r5 ON
+r6, r7, r8 OFF</t>
+  </si>
+  <si>
+    <t>CONTROL CONTENT:
+d1 TURN ON
+d2 TURN OFF 
+d3, d4 ON
+d5, d6 OFF
+d7 ON +60% 
+d8, d9, d10 ON +70%
+d11, d12, d13 OFF</t>
+  </si>
+  <si>
+    <t>FAN1 ON RELAY OFF SPEED 3
+FAN2 OFF RELAY OFF
+FAN3 ON RELAY OFF SPEED 1</t>
+  </si>
+  <si>
+    <t>PPT_1 ON OFF
+PPT_2 OFF ON</t>
   </si>
 </sst>
 </file>
@@ -515,17 +516,17 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,324 +836,324 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="87.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="395" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Kasta Project Management Platform\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D740B-C8BC-460E-A719-235352342627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FCA80-1DA0-4CA9-A043-4D38E3C5D527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="30" windowWidth="15660" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40380" yWindow="435" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>KASTA DEVICE</t>
   </si>
@@ -287,12 +287,6 @@
 6: SCENE Two Way PowerPoint Type</t>
   </si>
   <si>
-    <t>r1 on
-r2 OFF
-r3, r4, r5 ON
-r6, r7, r8 OFF</t>
-  </si>
-  <si>
     <t>CONTROL CONTENT:
 d1 TURN ON
 d2 TURN OFF 
@@ -310,6 +304,19 @@
   <si>
     <t>PPT_1 ON OFF
 PPT_2 OFF ON</t>
+  </si>
+  <si>
+    <t>NAME: S2400IB2</t>
+  </si>
+  <si>
+    <t>s1
+s2</t>
+  </si>
+  <si>
+    <t>r1 on
+r2 OFF
+r3, r4, r5, s1 ON
+r6, r7, r8, s2 OFF</t>
   </si>
 </sst>
 </file>
@@ -834,10 +841,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,294 +881,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11" t="s">
+    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="13" t="s">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Kasta Project Management Platform\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FCA80-1DA0-4CA9-A043-4D38E3C5D527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F52088-00BD-4585-A397-974BCDF70DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40380" yWindow="435" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33090" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -249,13 +249,6 @@
 4: SCENE Relay Type - MOMENTARY</t>
   </si>
   <si>
-    <t>1: DEVICE CURTAIN_1 - CLOSE
-2: DEVICE CURTAIN_2 - OPEN
-3: DEVICE CURTAIN_3 - OPEN
-4: SCENE Mixed Type
-5: GROUP DND</t>
-  </si>
-  <si>
     <t>NAME: Single Way PowerPoint Type</t>
   </si>
   <si>
@@ -306,9 +299,6 @@
 PPT_2 OFF ON</t>
   </si>
   <si>
-    <t>NAME: S2400IB2</t>
-  </si>
-  <si>
     <t>s1
 s2</t>
   </si>
@@ -317,6 +307,16 @@
 r2 OFF
 r3, r4, r5, s1 ON
 r6, r7, r8, s2 OFF</t>
+  </si>
+  <si>
+    <t>NAME: S2400IBH</t>
+  </si>
+  <si>
+    <t>1: DEVICE CURTAIN_1 - CLOSE
+2: DEVICE CURTAIN_2 - OPEN
+3: DEVICE CURTAIN_3 - WHOLE
+4: SCENE Mixed Type
+5: GROUP DND</t>
   </si>
 </sst>
 </file>
@@ -843,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -875,7 +875,7 @@
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -884,10 +884,10 @@
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1081,22 +1081,22 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1156,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Kasta Project Management Platform\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F52088-00BD-4585-A397-974BCDF70DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBEB27-816F-4204-96BF-77AC70F472F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33300" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -243,12 +243,6 @@
 3: SCENE Fan Type</t>
   </si>
   <si>
-    <t>1: DEVICE CURTAIN_1 - CLOSE
-2: DEVICE CURTAIN_2 - OPEN
-3: SCENE Dimmer Type - TOGGLE
-4: SCENE Relay Type - MOMENTARY</t>
-  </si>
-  <si>
     <t>NAME: Single Way PowerPoint Type</t>
   </si>
   <si>
@@ -312,11 +306,17 @@
     <t>NAME: S2400IBH</t>
   </si>
   <si>
+    <t>1: DEVICE FAN1 - FAN
+2: DEVICE FAN2 - LAMP
+3: DEVICE FAN3 - WHOLE
+4: SCENE Mixed Type</t>
+  </si>
+  <si>
     <t>1: DEVICE CURTAIN_1 - CLOSE
 2: DEVICE CURTAIN_2 - OPEN
 3: DEVICE CURTAIN_3 - WHOLE
-4: SCENE Mixed Type
-5: GROUP DND</t>
+4: SCENE Dimmer Type - TOGGLE
+5: SCENE Relay Type - MOMENTARY</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B30" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -875,7 +875,7 @@
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -884,10 +884,10 @@
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1081,22 +1081,22 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Kasta Project Management Platform\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDBEB27-816F-4204-96BF-77AC70F472F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50667E-C1B7-4034-9665-BAFAAE092EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33900" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>6IN</t>
-  </si>
-  <si>
-    <t>4OUT</t>
   </si>
   <si>
     <t>KASTA GROUP</t>
@@ -266,14 +263,6 @@
 PPT_4</t>
   </si>
   <si>
-    <t>1: DEVICE PPT_1
-2: DEVICE PPT_2 - ON OFF
-3: DEVICE PPT_4 - OFF ON
-4: DEVICE PPT3
-5: SCENE Single Way PowerPoint Type
-6: SCENE Two Way PowerPoint Type</t>
-  </si>
-  <si>
     <t>CONTROL CONTENT:
 d1 TURN ON
 d2 TURN OFF 
@@ -315,8 +304,20 @@
     <t>1: DEVICE CURTAIN_1 - CLOSE
 2: DEVICE CURTAIN_2 - OPEN
 3: DEVICE CURTAIN_3 - WHOLE
-4: SCENE Dimmer Type - TOGGLE
-5: SCENE Relay Type - MOMENTARY</t>
+4: DEVICE PPT_1 - LEFT
+5: DEVICE PPT_2 - RIGHT</t>
+  </si>
+  <si>
+    <t>4OUT
+4OUT_2</t>
+  </si>
+  <si>
+    <t>1: DEVICE PPT_4 - WHOLE
+2: DEVICE 4OUT - FIRST
+3: DEVICE 4OUT - SECOND
+4: DEVICE 4OUT - THIRD
+5: DEVICE 4OUT - FOURTH
+6: DEVICE 4OUT - WHOLE</t>
   </si>
 </sst>
 </file>
@@ -385,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -398,21 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,66 +459,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -841,9 +912,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="108" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -855,52 +926,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -909,7 +980,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
@@ -918,7 +989,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -927,256 +998,258 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>11</v>
+      <c r="A18" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10" t="s">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
       <c r="B34" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
       <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
       <c r="B36" s="11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A31:A36"/>
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50667E-C1B7-4034-9665-BAFAAE092EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBC2A1-A83D-4659-BBC7-ADD7171CE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="120" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34065" yWindow="0" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>KASTA DEVICE</t>
   </si>
@@ -113,12 +113,6 @@
 d11
 d12
 d13</t>
-  </si>
-  <si>
-    <t>DEVICE CONTROL: 
-d1
-d2
-d3</t>
   </si>
   <si>
     <t>DEVICE CONTROL: 
@@ -308,8 +302,23 @@
 5: DEVICE PPT_2 - RIGHT</t>
   </si>
   <si>
+    <t>VIRTUAL DRY CONTACT</t>
+  </si>
+  <si>
+    <t>NAME: 4OUT</t>
+  </si>
+  <si>
     <t>4OUT
 4OUT_2</t>
+  </si>
+  <si>
+    <t>NAME: 4OUT_2</t>
+  </si>
+  <si>
+    <t>1: Terminal_1 - NORMAL
+2: Terminal_2 - 1SEC
+3: Terminal_3 - 6SEC
+4: Terminal_4 - 9SEC</t>
   </si>
   <si>
     <t>1: DEVICE PPT_4 - WHOLE
@@ -319,12 +328,31 @@
 5: DEVICE 4OUT - FOURTH
 6: DEVICE 4OUT - WHOLE</t>
   </si>
+  <si>
+    <t>3: Terminal_NAME - REVERS
+4: T_NAME2</t>
+  </si>
+  <si>
+    <t>d1
+d2
+d3</t>
+  </si>
+  <si>
+    <t>REMOTE CONTROL PARAMETER</t>
+  </si>
+  <si>
+    <t>BACKLIGHT: DISABLED
+BACKLIGHT_COLOR: GREEN
+BACKLIGHT_TIMEOUT: 10MIN
+BEEP: DISABLED
+NIGHT_LIGHT: HIGH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +405,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -399,6 +435,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,9 +511,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -473,57 +535,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -534,9 +563,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,62 +577,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -912,66 +947,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="87.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -980,7 +1015,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
@@ -989,7 +1024,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1007,107 +1042,107 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10" t="s">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -1115,134 +1150,159 @@
       <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
+      <c r="B38" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBC2A1-A83D-4659-BBC7-ADD7171CE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CABFB-C239-4057-81F0-131721C25F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34065" yWindow="0" windowWidth="16530" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="825" windowWidth="20460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>KASTA DEVICE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>r1
 r2
@@ -64,15 +61,6 @@
 FAN4</t>
   </si>
   <si>
-    <t>6IN</t>
-  </si>
-  <si>
-    <t>KASTA GROUP</t>
-  </si>
-  <si>
-    <t>KASTA SCENE</t>
-  </si>
-  <si>
     <t>REMOTE CONTROL LINK</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
   </si>
   <si>
     <t>NAME: S04</t>
-  </si>
-  <si>
-    <t>NAME: S05</t>
   </si>
   <si>
     <t>NAME: 5RSIBH</t>
@@ -115,24 +100,9 @@
 d13</t>
   </si>
   <si>
-    <t>DEVICE CONTROL: 
-r1
-r2
-r3</t>
-  </si>
-  <si>
-    <t>DEVICE CONTROL: 
-PPT_1
-PPT_2</t>
-  </si>
-  <si>
     <t>NAME: DND</t>
   </si>
   <si>
-    <t>DEVICE CONTROL: 
-4OUT</t>
-  </si>
-  <si>
     <t>NAME: Group 3</t>
   </si>
   <si>
@@ -155,6 +125,142 @@
   </si>
   <si>
     <t>NAME: Mixed Type</t>
+  </si>
+  <si>
+    <t>PPT3 OFF</t>
+  </si>
+  <si>
+    <t>NAME: H1RSMB</t>
+  </si>
+  <si>
+    <t>NAME: H2RSMB</t>
+  </si>
+  <si>
+    <t>NAME: H3RSMB</t>
+  </si>
+  <si>
+    <t>NAME: H4RSMB</t>
+  </si>
+  <si>
+    <t>NAME: H5RSMB</t>
+  </si>
+  <si>
+    <t>NAME: H6RSMB</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>NAME: S06</t>
+  </si>
+  <si>
+    <t>1: DEVICE d1</t>
+  </si>
+  <si>
+    <t>1: GROUP Group 1
+2: GROUP Group 2</t>
+  </si>
+  <si>
+    <t>1: SCENE Dimmer Type
+2: SCENE Relay Type
+3: SCENE Fan Type</t>
+  </si>
+  <si>
+    <t>NAME: Single Way PowerPoint Type</t>
+  </si>
+  <si>
+    <t>NAME: KBSKTREL</t>
+  </si>
+  <si>
+    <t>NAME: KBSKTDIM</t>
+  </si>
+  <si>
+    <t>NAME: Two Way PowerPoint Type</t>
+  </si>
+  <si>
+    <t>PPT_1
+PPT_2
+PPT_4</t>
+  </si>
+  <si>
+    <t>FAN1 ON RELAY OFF SPEED 3
+FAN2 OFF RELAY OFF
+FAN3 ON RELAY OFF SPEED 1</t>
+  </si>
+  <si>
+    <t>PPT_1 ON OFF
+PPT_2 OFF ON</t>
+  </si>
+  <si>
+    <t>s1
+s2</t>
+  </si>
+  <si>
+    <t>NAME: S2400IBH</t>
+  </si>
+  <si>
+    <t>1: DEVICE FAN1 - FAN
+2: DEVICE FAN2 - LAMP
+3: DEVICE FAN3 - WHOLE
+4: SCENE Mixed Type</t>
+  </si>
+  <si>
+    <t>NAME: 4OUT</t>
+  </si>
+  <si>
+    <t>4OUT
+4OUT_2</t>
+  </si>
+  <si>
+    <t>NAME: 4OUT_2</t>
+  </si>
+  <si>
+    <t>1: Terminal_1 - NORMAL
+2: Terminal_2 - 1SEC
+3: Terminal_3 - 6SEC
+4: Terminal_4 - 9SEC</t>
+  </si>
+  <si>
+    <t>d1
+d2
+d3</t>
+  </si>
+  <si>
+    <t>REMOTE CONTROL PARAMETER</t>
+  </si>
+  <si>
+    <t>BACKLIGHT: DISABLED
+BACKLIGHT_COLOR: GREEN
+BACKLIGHT_TIMEOUT: 10MIN
+BEEP: DISABLED
+NIGHT_LIGHT: HIGH</t>
+  </si>
+  <si>
+    <t>r1 ON
+r2 OFF
+r3, r4, r5, s1 ON
+r6, r7, r8, s2 OFF</t>
+  </si>
+  <si>
+    <t>CURTAIN_1 OPEN
+CURTAIN_2 CLOSE
+CURTAIN_3, CURTAIN_4 OPEN
+CURTAIN_5, CURTAIN_6 OPEN</t>
   </si>
   <si>
     <t>d1 ON
@@ -176,90 +282,30 @@
 CURTAIN_3, CURTAIN_4 OPEN
 CURTAIN_5, CURTAIN_6 CLOSE
 PPT_1 ON OFF
-PPT_2 OFF ON
-PPT3 OFF</t>
-  </si>
-  <si>
-    <t>PPT3 OFF</t>
-  </si>
-  <si>
-    <t>NAME: H1RSMB</t>
-  </si>
-  <si>
-    <t>NAME: H2RSMB</t>
-  </si>
-  <si>
-    <t>NAME: H3RSMB</t>
-  </si>
-  <si>
-    <t>NAME: H4RSMB</t>
-  </si>
-  <si>
-    <t>NAME: H5RSMB</t>
-  </si>
-  <si>
-    <t>NAME: H6RSMB</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>NAME: S06</t>
-  </si>
-  <si>
-    <t>1: DEVICE d1</t>
-  </si>
-  <si>
-    <t>1: GROUP Group 1
-2: GROUP Group 2</t>
-  </si>
-  <si>
-    <t>1: SCENE Dimmer Type
-2: SCENE Relay Type
-3: SCENE Fan Type</t>
-  </si>
-  <si>
-    <t>NAME: Single Way PowerPoint Type</t>
-  </si>
-  <si>
-    <t>NAME: KBSKTREL</t>
-  </si>
-  <si>
-    <t>NAME: KBSKTDIM</t>
-  </si>
-  <si>
-    <t>CURTAIN_1 open
-CURTAIN_2 CLOSE
-CURTAIN_3, CURTAIN_4 OPEN
-CURTAIN_5, CURTAIN_6 close</t>
-  </si>
-  <si>
-    <t>NAME: Two Way PowerPoint Type</t>
+PPT_2 UNSELECT
+PPT3 ON</t>
+  </si>
+  <si>
+    <t>5IN</t>
+  </si>
+  <si>
+    <t>NAME: 5IN</t>
+  </si>
+  <si>
+    <t>r1
+r2
+r3</t>
   </si>
   <si>
     <t>PPT_1
-PPT_2
-PPT_4</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-d1 TURN ON
-d2 TURN OFF 
+PPT_2</t>
+  </si>
+  <si>
+    <t>4OUT</t>
+  </si>
+  <si>
+    <t>d1 ON
+d2 OFF 
 d3, d4 ON
 d5, d6 OFF
 d7 ON +60% 
@@ -267,85 +313,60 @@
 d11, d12, d13 OFF</t>
   </si>
   <si>
-    <t>FAN1 ON RELAY OFF SPEED 3
-FAN2 OFF RELAY OFF
-FAN3 ON RELAY OFF SPEED 1</t>
-  </si>
-  <si>
-    <t>PPT_1 ON OFF
-PPT_2 OFF ON</t>
-  </si>
-  <si>
-    <t>s1
-s2</t>
-  </si>
-  <si>
-    <t>r1 on
-r2 OFF
-r3, r4, r5, s1 ON
-r6, r7, r8, s2 OFF</t>
-  </si>
-  <si>
-    <t>NAME: S2400IBH</t>
-  </si>
-  <si>
-    <t>1: DEVICE FAN1 - FAN
-2: DEVICE FAN2 - LAMP
-3: DEVICE FAN3 - WHOLE
-4: SCENE Mixed Type</t>
-  </si>
-  <si>
-    <t>1: DEVICE CURTAIN_1 - CLOSE
-2: DEVICE CURTAIN_2 - OPEN
-3: DEVICE CURTAIN_3 - WHOLE
-4: DEVICE PPT_1 - LEFT
-5: DEVICE PPT_2 - RIGHT</t>
-  </si>
-  <si>
-    <t>VIRTUAL DRY CONTACT</t>
-  </si>
-  <si>
-    <t>NAME: 4OUT</t>
-  </si>
-  <si>
-    <t>4OUT
-4OUT_2</t>
-  </si>
-  <si>
-    <t>NAME: 4OUT_2</t>
-  </si>
-  <si>
-    <t>1: Terminal_1 - NORMAL
-2: Terminal_2 - 1SEC
-3: Terminal_3 - 6SEC
-4: Terminal_4 - 9SEC</t>
-  </si>
-  <si>
-    <t>1: DEVICE PPT_4 - WHOLE
-2: DEVICE 4OUT - FIRST
-3: DEVICE 4OUT - SECOND
-4: DEVICE 4OUT - THIRD
-5: DEVICE 4OUT - FOURTH
-6: DEVICE 4OUT - WHOLE</t>
-  </si>
-  <si>
-    <t>3: Terminal_NAME - REVERS
-4: T_NAME2</t>
-  </si>
-  <si>
-    <t>d1
-d2
-d3</t>
-  </si>
-  <si>
-    <t>REMOTE CONTROL PARAMETER</t>
-  </si>
-  <si>
-    <t>BACKLIGHT: DISABLED
-BACKLIGHT_COLOR: GREEN
-BACKLIGHT_TIMEOUT: 10MIN
-BEEP: DISABLED
-NIGHT_LIGHT: HIGH</t>
+    <t>1: DEVICE PPT_1 
+2: DEVICE CURTAIN_1 - CLOSE 
+3: DEVICE CURTAIN_2 + TOGGLE 
+4: DEVICE CURTAIN_3 - WHOLE + TOGGLE</t>
+  </si>
+  <si>
+    <t>OUTPUT MODULE</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>SCENE</t>
+  </si>
+  <si>
+    <t>1: DEVICE 4OUT - FIRST
+2: DEVICE 4OUT - SECOND
+3: DEVICE 4OUT - THIRD
+4: DEVICE 4OUT - FOURTH
+5: DEVICE 4OUT - WHOLE</t>
+  </si>
+  <si>
+    <t>(* Standard operation)
+(* 1 second pulse)
+(* 6 second pulse)
+(* 9 second pulse)</t>
+  </si>
+  <si>
+    <t>1: Terminal_A - NORMAL
+2: Terminal_B - REVERS
+3: Terminal_C 
+4: Terminal_D - 1SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(* Reverse operation)
+(* No action specified = NORMAL)</t>
+  </si>
+  <si>
+    <t>(* Output channel 1)
+(* Output channel 2)
+(* Output channel 3)
+(* Output channel 4)
+(* All channels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(* Input Action using '+')</t>
+  </si>
+  <si>
+    <t>(* Device Action using '-')</t>
   </si>
 </sst>
 </file>
@@ -563,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -612,17 +633,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,6 +647,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,6 +658,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,360 +979,378 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>10</v>
+      <c r="A18" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>11</v>
+    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="C35" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
       <c r="B36" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="18" t="s">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>74</v>
+      <c r="B38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\Programming List\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5CABFB-C239-4057-81F0-131721C25F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C85A6C-B4BC-4DB2-AF36-37D333D2B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="825" windowWidth="20460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="0" windowWidth="20460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>r1
 r2
@@ -198,15 +198,6 @@
 PPT_4</t>
   </si>
   <si>
-    <t>FAN1 ON RELAY OFF SPEED 3
-FAN2 OFF RELAY OFF
-FAN3 ON RELAY OFF SPEED 1</t>
-  </si>
-  <si>
-    <t>PPT_1 ON OFF
-PPT_2 OFF ON</t>
-  </si>
-  <si>
     <t>s1
 s2</t>
   </si>
@@ -261,6 +252,163 @@
 CURTAIN_2 CLOSE
 CURTAIN_3, CURTAIN_4 OPEN
 CURTAIN_5, CURTAIN_6 OPEN</t>
+  </si>
+  <si>
+    <t>NAME: 5IN</t>
+  </si>
+  <si>
+    <t>r1
+r2
+r3</t>
+  </si>
+  <si>
+    <t>PPT_1
+PPT_2</t>
+  </si>
+  <si>
+    <t>4OUT</t>
+  </si>
+  <si>
+    <t>d1 ON
+d2 OFF 
+d3, d4 ON
+d5, d6 OFF
+d7 ON +60% 
+d8, d9, d10 ON +70%
+d11, d12, d13 OFF</t>
+  </si>
+  <si>
+    <t>OUTPUT MODULE</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>SCENE</t>
+  </si>
+  <si>
+    <t>1: DEVICE 4OUT - FIRST
+2: DEVICE 4OUT - SECOND
+3: DEVICE 4OUT - THIRD
+4: DEVICE 4OUT - FOURTH
+5: DEVICE 4OUT - WHOLE</t>
+  </si>
+  <si>
+    <t>(* Standard operation)
+(* 1 second pulse)
+(* 6 second pulse)
+(* 9 second pulse)</t>
+  </si>
+  <si>
+    <t>1: Terminal_A - NORMAL
+2: Terminal_B - REVERS
+3: Terminal_C 
+4: Terminal_D - 1SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(* Reverse operation)
+(* No action specified = NORMAL)</t>
+  </si>
+  <si>
+    <t>(* Output channel 1)
+(* Output channel 2)
+(* Output channel 3)
+(* Output channel 4)
+(* All channels)</t>
+  </si>
+  <si>
+    <t>(* Device Action using '-')</t>
+  </si>
+  <si>
+    <t>FAN1 ON RELAY OFF SPEED 3
+FAN2 OFF RELAY OFF
+FAN3 ON RELAY ON SPEED 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>INPUT MODULE</t>
+  </si>
+  <si>
+    <t>5IN
+5IN_2</t>
+  </si>
+  <si>
+    <t>1: TOGGLE
+4: TOGGLE</t>
+  </si>
+  <si>
+    <t>NAME: 5IN_2</t>
+  </si>
+  <si>
+    <t>3: TOGGLE</t>
+  </si>
+  <si>
+    <t>(* No action specified = MOMENTARY)</t>
+  </si>
+  <si>
+    <t>DRY CONTACT</t>
+  </si>
+  <si>
+    <t>NAME: S10IBH</t>
+  </si>
+  <si>
+    <t>dryContact_1
+dryContact_2
+dryContact_3</t>
+  </si>
+  <si>
+    <t>NAME: dryContact_1</t>
+  </si>
+  <si>
+    <t>REVERS</t>
+  </si>
+  <si>
+    <t>6SEC</t>
+  </si>
+  <si>
+    <t>NAME: dryContact_2</t>
+  </si>
+  <si>
+    <t>NAME: dryContact_3</t>
+  </si>
+  <si>
+    <t>(* Reverse operation)</t>
+  </si>
+  <si>
+    <t>(* 6 second pulse)</t>
+  </si>
+  <si>
+    <t>1: DEVICE PPT_1 
+2: DEVICE CURTAIN_1 - CLOSE
+3: DEVICE CURTAIN_2 
+4: DEVICE CURTAIN_3 - WHOLE</t>
+  </si>
+  <si>
+    <t>NAME: Group 4</t>
+  </si>
+  <si>
+    <t>dryContact_1
+FAN1</t>
+  </si>
+  <si>
+    <t>NAME: Dry Contact</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>(* No action specified = NORMAL)</t>
+  </si>
+  <si>
+    <t>(* If status of contact is NORMAL, supports ON / OFF)
+(* If status of contact is 1/6/9SEC/REVERS, only supports ON)</t>
   </si>
   <si>
     <t>d1 ON
@@ -282,91 +430,17 @@
 CURTAIN_3, CURTAIN_4 OPEN
 CURTAIN_5, CURTAIN_6 CLOSE
 PPT_1 ON OFF
-PPT_2 UNSELECT
+PPT_2 UNSELECT ON
 PPT3 ON</t>
   </si>
   <si>
-    <t>5IN</t>
-  </si>
-  <si>
-    <t>NAME: 5IN</t>
-  </si>
-  <si>
-    <t>r1
-r2
-r3</t>
-  </si>
-  <si>
-    <t>PPT_1
-PPT_2</t>
-  </si>
-  <si>
-    <t>4OUT</t>
-  </si>
-  <si>
-    <t>d1 ON
-d2 OFF 
-d3, d4 ON
-d5, d6 OFF
-d7 ON +60% 
-d8, d9, d10 ON +70%
-d11, d12, d13 OFF</t>
-  </si>
-  <si>
-    <t>1: DEVICE PPT_1 
-2: DEVICE CURTAIN_1 - CLOSE 
-3: DEVICE CURTAIN_2 + TOGGLE 
-4: DEVICE CURTAIN_3 - WHOLE + TOGGLE</t>
-  </si>
-  <si>
-    <t>OUTPUT MODULE</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>GROUP</t>
-  </si>
-  <si>
-    <t>SCENE</t>
-  </si>
-  <si>
-    <t>1: DEVICE 4OUT - FIRST
-2: DEVICE 4OUT - SECOND
-3: DEVICE 4OUT - THIRD
-4: DEVICE 4OUT - FOURTH
-5: DEVICE 4OUT - WHOLE</t>
-  </si>
-  <si>
-    <t>(* Standard operation)
-(* 1 second pulse)
-(* 6 second pulse)
-(* 9 second pulse)</t>
-  </si>
-  <si>
-    <t>1: Terminal_A - NORMAL
-2: Terminal_B - REVERS
-3: Terminal_C 
-4: Terminal_D - 1SEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(* Reverse operation)
-(* No action specified = NORMAL)</t>
-  </si>
-  <si>
-    <t>(* Output channel 1)
-(* Output channel 2)
-(* Output channel 3)
-(* Output channel 4)
-(* All channels)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(* Input Action using '+')</t>
-  </si>
-  <si>
-    <t>(* Device Action using '-')</t>
+    <t>dryContact_1 OFF
+dryContact_2 ON
+dryContact_3 ON</t>
+  </si>
+  <si>
+    <t>PPT_1 ON OFF
+PPT_2 OFF UNSELECT</t>
   </si>
 </sst>
 </file>
@@ -443,7 +517,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -490,10 +564,86 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -513,70 +663,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -584,92 +671,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,388 +1088,478 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="D46" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/excel/example.xlsx
+++ b/src/assets/excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C85A6C-B4BC-4DB2-AF36-37D333D2B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68168FFC-03EF-4216-855B-6BB34B618E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="0" windowWidth="20460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="195" windowWidth="14835" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
 s2</t>
   </si>
   <si>
-    <t>NAME: S2400IBH</t>
-  </si>
-  <si>
     <t>1: DEVICE FAN1 - FAN
 2: DEVICE FAN2 - LAMP
 3: DEVICE FAN3 - WHOLE
@@ -303,12 +300,6 @@
 (* 9 second pulse)</t>
   </si>
   <si>
-    <t>1: Terminal_A - NORMAL
-2: Terminal_B - REVERS
-3: Terminal_C 
-4: Terminal_D - 1SEC</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 (* Reverse operation)
 (* No action specified = NORMAL)</t>
@@ -324,11 +315,6 @@
     <t>(* Device Action using '-')</t>
   </si>
   <si>
-    <t>FAN1 ON RELAY OFF SPEED 3
-FAN2 OFF RELAY OFF
-FAN3 ON RELAY ON SPEED 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -365,9 +351,6 @@
   </si>
   <si>
     <t>NAME: dryContact_1</t>
-  </si>
-  <si>
-    <t>REVERS</t>
   </si>
   <si>
     <t>6SEC</t>
@@ -409,6 +392,27 @@
   <si>
     <t>(* If status of contact is NORMAL, supports ON / OFF)
 (* If status of contact is 1/6/9SEC/REVERS, only supports ON)</t>
+  </si>
+  <si>
+    <t>dryContact_1 OFF
+dryContact_2 ON
+dryContact_3 ON</t>
+  </si>
+  <si>
+    <t>PPT_1 ON OFF
+PPT_2 OFF UNSELECT</t>
+  </si>
+  <si>
+    <t>NAME: S2400IB-H</t>
+  </si>
+  <si>
+    <t>1: Terminal_A - NORMAL
+2: Terminal_B - REVERSE
+3: Terminal_C 
+4: Terminal_D - 1SEC</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
   </si>
   <si>
     <t>d1 ON
@@ -422,7 +426,7 @@
 r2 OFF
 r3, r4, r5 ON
 r6, r7, r8, d13 OFF
-FAN1 ON RELAY OFF SPEED 3
+FAN1 ON RELAY OFF SPEED 2
 FAN2 OFF RELAY OFF
 FAN3 ON RELAY OFF SPEED 1
 CURTAIN_1 OPEN
@@ -434,13 +438,9 @@
 PPT3 ON</t>
   </si>
   <si>
-    <t>dryContact_1 OFF
-dryContact_2 ON
-dryContact_3 ON</t>
-  </si>
-  <si>
-    <t>PPT_1 ON OFF
-PPT_2 OFF UNSELECT</t>
+    <t>FAN1 ON RELAY OFF SPEED 1
+FAN2 OFF RELAY OFF
+FAN3 ON RELAY ON SPEED 1</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -1133,7 +1133,7 @@
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>
@@ -1178,10 +1178,10 @@
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,13 +1261,13 @@
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1285,16 +1285,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>101</v>
-      </c>
       <c r="D31" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="375" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,22 +1425,22 @@
         <v>12</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,97 +1460,97 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="C41" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C42" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
         <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
         <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
